--- a/data/output/FV2310_FV2304/INVOIC/31005.xlsx
+++ b/data/output/FV2310_FV2304/INVOIC/31005.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3944" uniqueCount="328">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3965" uniqueCount="328">
+  <si>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -1131,6 +1131,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U195" totalsRowShown="0">
+  <autoFilter ref="A1:U195"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2304"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="3" name="Segment_FV2304"/>
+    <tableColumn id="4" name="Datenelement_FV2304"/>
+    <tableColumn id="5" name="Segment ID_FV2304"/>
+    <tableColumn id="6" name="Code_FV2304"/>
+    <tableColumn id="7" name="Qualifier_FV2304"/>
+    <tableColumn id="8" name="Beschreibung_FV2304"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="10" name="Bedingung_FV2304"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2310"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="14" name="Segment_FV2310"/>
+    <tableColumn id="15" name="Datenelement_FV2310"/>
+    <tableColumn id="16" name="Segment ID_FV2310"/>
+    <tableColumn id="17" name="Code_FV2310"/>
+    <tableColumn id="18" name="Qualifier_FV2310"/>
+    <tableColumn id="19" name="Beschreibung_FV2310"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="21" name="Bedingung_FV2310"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1420,7 +1450,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10196,5 +10229,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2310_FV2304/INVOIC/31005.xlsx
+++ b/data/output/FV2310_FV2304/INVOIC/31005.xlsx
@@ -1664,7 +1664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1687,6 +1687,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1695,6 +1698,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2135,7 +2141,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2471,7 +2477,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2705,7 +2711,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="2"/>
@@ -2893,7 +2899,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2"/>
@@ -3081,7 +3087,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2"/>
@@ -3265,7 +3271,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2"/>
@@ -3451,7 +3457,7 @@
         <v>305</v>
       </c>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2"/>
@@ -3639,7 +3645,7 @@
         <v>306</v>
       </c>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2"/>
@@ -3825,7 +3831,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N38" s="2"/>
@@ -4015,7 +4021,7 @@
         <v>307</v>
       </c>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N42" s="2"/>
@@ -4155,7 +4161,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4345,7 +4351,7 @@
         <v>308</v>
       </c>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4535,7 +4541,7 @@
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -5243,7 +5249,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5485,7 +5491,7 @@
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -5671,7 +5677,7 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -6031,7 +6037,7 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -6741,7 +6747,7 @@
         <v>312</v>
       </c>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -6971,20 +6977,20 @@
       <c r="B102" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8" t="s">
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="K102" s="8"/>
-      <c r="L102" s="9" t="s">
+      <c r="K102" s="9"/>
+      <c r="L102" s="10" t="s">
         <v>326</v>
       </c>
       <c r="M102" s="5"/>
@@ -7002,25 +7008,25 @@
       <c r="A103" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8" t="s">
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="K103" s="8"/>
-      <c r="L103" s="9" t="s">
+      <c r="K103" s="9"/>
+      <c r="L103" s="10" t="s">
         <v>326</v>
       </c>
       <c r="M103" s="5"/>
@@ -7038,31 +7044,31 @@
       <c r="A104" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D104" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E104" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8" t="s">
+      <c r="F104" s="9"/>
+      <c r="G104" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8" t="s">
+      <c r="H104" s="9"/>
+      <c r="I104" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="J104" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="K104" s="8"/>
-      <c r="L104" s="9" t="s">
+      <c r="J104" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="K104" s="9"/>
+      <c r="L104" s="10" t="s">
         <v>326</v>
       </c>
       <c r="M104" s="5"/>
@@ -7080,29 +7086,29 @@
       <c r="A105" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="E105" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8" t="s">
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="J105" s="8" t="s">
+      <c r="J105" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="K105" s="8"/>
-      <c r="L105" s="9" t="s">
+      <c r="K105" s="9"/>
+      <c r="L105" s="10" t="s">
         <v>326</v>
       </c>
       <c r="M105" s="5"/>
@@ -7120,31 +7126,31 @@
       <c r="A106" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E106" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8" t="s">
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="J106" s="8" t="s">
+      <c r="J106" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="K106" s="8" t="s">
+      <c r="K106" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="L106" s="9" t="s">
+      <c r="L106" s="10" t="s">
         <v>326</v>
       </c>
       <c r="M106" s="5"/>
@@ -7162,29 +7168,29 @@
       <c r="A107" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D107" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E107" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8" t="s">
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="J107" s="8" t="s">
+      <c r="J107" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="K107" s="8"/>
-      <c r="L107" s="9" t="s">
+      <c r="K107" s="9"/>
+      <c r="L107" s="10" t="s">
         <v>326</v>
       </c>
       <c r="M107" s="5"/>
@@ -7202,29 +7208,29 @@
       <c r="A108" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E108" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8" t="s">
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="J108" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="K108" s="8"/>
-      <c r="L108" s="9" t="s">
+      <c r="J108" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="K108" s="9"/>
+      <c r="L108" s="10" t="s">
         <v>326</v>
       </c>
       <c r="M108" s="5"/>
@@ -7242,29 +7248,29 @@
       <c r="A109" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D109" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="E109" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8" t="s">
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="J109" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="K109" s="8"/>
-      <c r="L109" s="9" t="s">
+      <c r="J109" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="K109" s="9"/>
+      <c r="L109" s="10" t="s">
         <v>326</v>
       </c>
       <c r="M109" s="5"/>
@@ -7292,25 +7298,25 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
-      <c r="L110" s="10" t="s">
+      <c r="L110" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="M110" s="11" t="s">
+      <c r="M110" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="N110" s="11" t="s">
+      <c r="N110" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O110" s="11"/>
-      <c r="P110" s="11"/>
-      <c r="Q110" s="11"/>
-      <c r="R110" s="11"/>
-      <c r="S110" s="11"/>
-      <c r="T110" s="11"/>
-      <c r="U110" s="11" t="s">
+      <c r="O110" s="13"/>
+      <c r="P110" s="13"/>
+      <c r="Q110" s="13"/>
+      <c r="R110" s="13"/>
+      <c r="S110" s="13"/>
+      <c r="T110" s="13"/>
+      <c r="U110" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="V110" s="11"/>
+      <c r="V110" s="13"/>
     </row>
     <row r="111" spans="1:22">
       <c r="A111" s="5" t="s">
@@ -7326,27 +7332,27 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
-      <c r="L111" s="10" t="s">
+      <c r="L111" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="M111" s="11" t="s">
+      <c r="M111" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="N111" s="11" t="s">
+      <c r="N111" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O111" s="11" t="s">
+      <c r="O111" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P111" s="11"/>
-      <c r="Q111" s="11"/>
-      <c r="R111" s="11"/>
-      <c r="S111" s="11"/>
-      <c r="T111" s="11"/>
-      <c r="U111" s="11" t="s">
+      <c r="P111" s="13"/>
+      <c r="Q111" s="13"/>
+      <c r="R111" s="13"/>
+      <c r="S111" s="13"/>
+      <c r="T111" s="13"/>
+      <c r="U111" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="V111" s="11"/>
+      <c r="V111" s="13"/>
     </row>
     <row r="112" spans="1:22">
       <c r="A112" s="5" t="s">
@@ -7362,33 +7368,33 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
-      <c r="L112" s="10" t="s">
+      <c r="L112" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="M112" s="11" t="s">
+      <c r="M112" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="N112" s="11" t="s">
+      <c r="N112" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O112" s="11" t="s">
+      <c r="O112" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P112" s="11" t="s">
+      <c r="P112" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="Q112" s="11"/>
-      <c r="R112" s="11" t="s">
+      <c r="Q112" s="13"/>
+      <c r="R112" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="S112" s="11"/>
-      <c r="T112" s="11" t="s">
+      <c r="S112" s="13"/>
+      <c r="T112" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="U112" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="V112" s="11"/>
+      <c r="U112" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="V112" s="13"/>
     </row>
     <row r="113" spans="1:22">
       <c r="A113" s="5" t="s">
@@ -7404,31 +7410,31 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
-      <c r="L113" s="10" t="s">
+      <c r="L113" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="M113" s="11" t="s">
+      <c r="M113" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="N113" s="11" t="s">
+      <c r="N113" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O113" s="11" t="s">
+      <c r="O113" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P113" s="11" t="s">
+      <c r="P113" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="Q113" s="11"/>
-      <c r="R113" s="11"/>
-      <c r="S113" s="11"/>
-      <c r="T113" s="11" t="s">
+      <c r="Q113" s="13"/>
+      <c r="R113" s="13"/>
+      <c r="S113" s="13"/>
+      <c r="T113" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="U113" s="11" t="s">
+      <c r="U113" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="V113" s="11"/>
+      <c r="V113" s="13"/>
     </row>
     <row r="114" spans="1:22">
       <c r="A114" s="5" t="s">
@@ -7444,31 +7450,31 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
-      <c r="L114" s="10" t="s">
+      <c r="L114" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="M114" s="11" t="s">
+      <c r="M114" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="N114" s="11" t="s">
+      <c r="N114" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O114" s="11" t="s">
+      <c r="O114" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P114" s="11" t="s">
+      <c r="P114" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="Q114" s="11"/>
-      <c r="R114" s="11"/>
-      <c r="S114" s="11"/>
-      <c r="T114" s="11" t="s">
+      <c r="Q114" s="13"/>
+      <c r="R114" s="13"/>
+      <c r="S114" s="13"/>
+      <c r="T114" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="U114" s="11" t="s">
+      <c r="U114" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="V114" s="11" t="s">
+      <c r="V114" s="13" t="s">
         <v>313</v>
       </c>
     </row>
@@ -7486,31 +7492,31 @@
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
-      <c r="L115" s="10" t="s">
+      <c r="L115" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="M115" s="11" t="s">
+      <c r="M115" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="N115" s="11" t="s">
+      <c r="N115" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O115" s="11" t="s">
+      <c r="O115" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P115" s="11" t="s">
+      <c r="P115" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Q115" s="11"/>
-      <c r="R115" s="11"/>
-      <c r="S115" s="11"/>
-      <c r="T115" s="11" t="s">
+      <c r="Q115" s="13"/>
+      <c r="R115" s="13"/>
+      <c r="S115" s="13"/>
+      <c r="T115" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="U115" s="11" t="s">
+      <c r="U115" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="V115" s="11"/>
+      <c r="V115" s="13"/>
     </row>
     <row r="116" spans="1:22">
       <c r="A116" s="5" t="s">
@@ -7526,31 +7532,31 @@
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
-      <c r="L116" s="10" t="s">
+      <c r="L116" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="M116" s="11" t="s">
+      <c r="M116" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="N116" s="11" t="s">
+      <c r="N116" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O116" s="11" t="s">
+      <c r="O116" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P116" s="11" t="s">
+      <c r="P116" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="Q116" s="11"/>
-      <c r="R116" s="11"/>
-      <c r="S116" s="11"/>
-      <c r="T116" s="11" t="s">
+      <c r="Q116" s="13"/>
+      <c r="R116" s="13"/>
+      <c r="S116" s="13"/>
+      <c r="T116" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="U116" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="V116" s="11"/>
+      <c r="U116" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="V116" s="13"/>
     </row>
     <row r="117" spans="1:22">
       <c r="A117" s="5" t="s">
@@ -7566,31 +7572,31 @@
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
-      <c r="L117" s="10" t="s">
+      <c r="L117" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="M117" s="11" t="s">
+      <c r="M117" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="N117" s="11" t="s">
+      <c r="N117" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O117" s="11" t="s">
+      <c r="O117" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P117" s="11" t="s">
+      <c r="P117" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="Q117" s="11"/>
-      <c r="R117" s="11"/>
-      <c r="S117" s="11"/>
-      <c r="T117" s="11" t="s">
+      <c r="Q117" s="13"/>
+      <c r="R117" s="13"/>
+      <c r="S117" s="13"/>
+      <c r="T117" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="U117" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="V117" s="11"/>
+      <c r="U117" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="V117" s="13"/>
     </row>
     <row r="118" spans="1:22">
       <c r="A118" s="2" t="s">
@@ -7615,7 +7621,7 @@
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -7763,7 +7769,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -8005,7 +8011,7 @@
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -8141,7 +8147,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -8343,7 +8349,7 @@
       </c>
       <c r="K133" s="2"/>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -8587,7 +8593,7 @@
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -8793,7 +8799,7 @@
         <v>319</v>
       </c>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -8945,7 +8951,7 @@
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -9145,7 +9151,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -9343,7 +9349,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -9531,7 +9537,7 @@
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -9719,7 +9725,7 @@
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -10123,7 +10129,7 @@
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N169" s="2"/>
@@ -10211,7 +10217,7 @@
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -10399,7 +10405,7 @@
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -10587,7 +10593,7 @@
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -10993,7 +10999,7 @@
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N187" s="2" t="s">
@@ -11143,7 +11149,7 @@
       </c>
       <c r="K190" s="2"/>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -11291,7 +11297,7 @@
       </c>
       <c r="K193" s="2"/>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N193" s="2"/>
